--- a/kwitansi_output/slip_gaji_19-22 Januari 2023.xlsx
+++ b/kwitansi_output/slip_gaji_19-22 Januari 2023.xlsx
@@ -817,7 +817,7 @@
     <row r="4">
       <c r="A4" s="39" t="inlineStr">
         <is>
-          <t>No.KWT_ATS_III_25_1075_BCA</t>
+          <t>No.KWT_ATS_III_25_1097_BCA</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5 Tahun 1 Bulan 27 Hari</t>
+          <t>5 Tahun 2 Bulan 0 Hari</t>
         </is>
       </c>
       <c r="F9" s="37" t="inlineStr">
@@ -1088,51 +1088,51 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="51" t="inlineStr">
+      <c r="A14" s="27" t="inlineStr">
         <is>
           <t>21-01-2023</t>
         </is>
       </c>
-      <c r="B14" s="52" t="inlineStr">
+      <c r="B14" s="28" t="inlineStr">
         <is>
           <t>Sabtu</t>
         </is>
       </c>
-      <c r="C14" s="53" t="inlineStr">
+      <c r="C14" s="29" t="inlineStr">
         <is>
           <t>08:04:01</t>
         </is>
       </c>
-      <c r="D14" s="52" t="inlineStr">
+      <c r="D14" s="28" t="inlineStr">
         <is>
           <t>18:00:07</t>
         </is>
       </c>
-      <c r="E14" s="54" t="n">
+      <c r="E14" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="F14" s="54" t="n">
+      <c r="F14" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="55" t="n">
+      <c r="G14" s="48" t="n">
         <v>110000</v>
       </c>
-      <c r="H14" s="55" t="n">
+      <c r="H14" s="48" t="n">
         <v>36666.66666666666</v>
       </c>
-      <c r="I14" s="52" t="n">
+      <c r="I14" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="56" t="n">
+      <c r="J14" s="49" t="n">
         <v>146666.6666666667</v>
       </c>
-      <c r="K14" s="52" t="n">
+      <c r="K14" s="28" t="n">
         <v>110000</v>
       </c>
-      <c r="L14" s="52" t="n">
+      <c r="L14" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="57" t="n">
+      <c r="M14" s="50" t="n">
         <v>36666.66666666666</v>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
     <row r="4">
       <c r="A4" s="39" t="inlineStr">
         <is>
-          <t>No.KWT_ATS_III_25_1076_NON BCA</t>
+          <t>No.KWT_ATS_III_25_1098_NON BCA</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5 Tahun 1 Bulan 27 Hari</t>
+          <t>5 Tahun 2 Bulan 0 Hari</t>
         </is>
       </c>
       <c r="F9" s="37" t="inlineStr">
@@ -1797,51 +1797,51 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="51" t="inlineStr">
+      <c r="A14" s="27" t="inlineStr">
         <is>
           <t>21-01-2023</t>
         </is>
       </c>
-      <c r="B14" s="52" t="inlineStr">
+      <c r="B14" s="28" t="inlineStr">
         <is>
           <t>Sabtu</t>
         </is>
       </c>
-      <c r="C14" s="53" t="inlineStr">
+      <c r="C14" s="29" t="inlineStr">
         <is>
           <t>08:04:01</t>
         </is>
       </c>
-      <c r="D14" s="52" t="inlineStr">
+      <c r="D14" s="28" t="inlineStr">
         <is>
           <t>18:00:07</t>
         </is>
       </c>
-      <c r="E14" s="54" t="n">
+      <c r="E14" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="F14" s="54" t="n">
+      <c r="F14" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="55" t="n">
+      <c r="G14" s="48" t="n">
         <v>250000</v>
       </c>
-      <c r="H14" s="55" t="n">
+      <c r="H14" s="48" t="n">
         <v>36666.66666666666</v>
       </c>
-      <c r="I14" s="52" t="n">
+      <c r="I14" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="56" t="n">
+      <c r="J14" s="49" t="n">
         <v>286666.6666666667</v>
       </c>
-      <c r="K14" s="52" t="n">
+      <c r="K14" s="28" t="n">
         <v>250000</v>
       </c>
-      <c r="L14" s="52" t="n">
+      <c r="L14" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="57" t="n">
+      <c r="M14" s="50" t="n">
         <v>36666.66666666669</v>
       </c>
     </row>
